--- a/data/pca/factorExposure/factorExposure_2011-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01077459166603486</v>
+        <v>-0.01324916202630139</v>
       </c>
       <c r="C2">
-        <v>0.001680645668028855</v>
+        <v>0.004610105564934082</v>
       </c>
       <c r="D2">
-        <v>-0.01577684938892856</v>
+        <v>-0.005750825233422789</v>
       </c>
       <c r="E2">
-        <v>-0.01805902471969036</v>
+        <v>0.01133078298717511</v>
       </c>
       <c r="F2">
-        <v>-0.002331980634625002</v>
+        <v>0.003929994077382137</v>
       </c>
       <c r="G2">
-        <v>-0.01557292977642943</v>
+        <v>-0.02058721639594955</v>
       </c>
       <c r="H2">
-        <v>-0.04239390411974892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.00149274349774043</v>
+      </c>
+      <c r="I2">
+        <v>-0.007187128164788145</v>
+      </c>
+      <c r="J2">
+        <v>-0.01276629351306619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1081751175922331</v>
+        <v>-0.1234671354814079</v>
       </c>
       <c r="C4">
-        <v>-0.01977076547286974</v>
+        <v>0.04959578423800609</v>
       </c>
       <c r="D4">
-        <v>-0.07229977927255919</v>
+        <v>-0.009351734945515781</v>
       </c>
       <c r="E4">
-        <v>-0.03197184309195746</v>
+        <v>-0.003826730725916921</v>
       </c>
       <c r="F4">
-        <v>-0.04613746700792013</v>
+        <v>0.01099704034861316</v>
       </c>
       <c r="G4">
-        <v>-0.01979816440155433</v>
+        <v>-0.005495762617603952</v>
       </c>
       <c r="H4">
-        <v>0.0278229274668608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.06121716700825463</v>
+      </c>
+      <c r="I4">
+        <v>-0.1359262707441714</v>
+      </c>
+      <c r="J4">
+        <v>-0.05661437312174466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1287791104515151</v>
+        <v>-0.1230319166004109</v>
       </c>
       <c r="C6">
-        <v>-0.02416673150459572</v>
+        <v>-0.006858677296298596</v>
       </c>
       <c r="D6">
-        <v>-0.008447205126918655</v>
+        <v>-0.01249168625958296</v>
       </c>
       <c r="E6">
-        <v>-0.01320370419243808</v>
+        <v>0.01594708214472362</v>
       </c>
       <c r="F6">
-        <v>0.1856683511170959</v>
+        <v>0.02617702569994268</v>
       </c>
       <c r="G6">
-        <v>0.1204662965750428</v>
+        <v>0.04125026929924426</v>
       </c>
       <c r="H6">
-        <v>0.2860740993107301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05019370746121059</v>
+      </c>
+      <c r="I6">
+        <v>-0.07326400062201632</v>
+      </c>
+      <c r="J6">
+        <v>0.1907071869593447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.09050695630202217</v>
+        <v>-0.08074620157849802</v>
       </c>
       <c r="C7">
-        <v>-0.03552457623941498</v>
+        <v>0.04252695504789424</v>
       </c>
       <c r="D7">
-        <v>-0.03531932786835097</v>
+        <v>-0.04028611477630093</v>
       </c>
       <c r="E7">
-        <v>-0.05233855648560033</v>
+        <v>0.04098289198199129</v>
       </c>
       <c r="F7">
-        <v>0.003494058744026982</v>
+        <v>0.007729083414792078</v>
       </c>
       <c r="G7">
-        <v>0.002496272068168527</v>
+        <v>-0.03752983915710163</v>
       </c>
       <c r="H7">
-        <v>0.005382257557717263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01894193048065038</v>
+      </c>
+      <c r="I7">
+        <v>-0.02888693410831121</v>
+      </c>
+      <c r="J7">
+        <v>-0.04031483070184607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04103528395142551</v>
+        <v>-0.05141679572836722</v>
       </c>
       <c r="C8">
-        <v>0.03384747378674349</v>
+        <v>0.009068865052433898</v>
       </c>
       <c r="D8">
-        <v>-0.121893386059744</v>
+        <v>-0.00689610222271104</v>
       </c>
       <c r="E8">
-        <v>-0.08385735859674517</v>
+        <v>0.01567217668954587</v>
       </c>
       <c r="F8">
-        <v>-0.03537443368765392</v>
+        <v>-0.001439483417608439</v>
       </c>
       <c r="G8">
-        <v>-0.1321746571917492</v>
+        <v>-0.001736669545639514</v>
       </c>
       <c r="H8">
-        <v>0.05983805718578552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.08200024391291114</v>
+      </c>
+      <c r="I8">
+        <v>-0.1069242203058413</v>
+      </c>
+      <c r="J8">
+        <v>-0.01101613945394888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09362590820670547</v>
+        <v>-0.09539321315076076</v>
       </c>
       <c r="C9">
-        <v>-0.03853552724118526</v>
+        <v>0.05193699340119273</v>
       </c>
       <c r="D9">
-        <v>-0.06225357061568475</v>
+        <v>0.003648222777686849</v>
       </c>
       <c r="E9">
-        <v>-0.0382638649920575</v>
+        <v>0.007764069457497838</v>
       </c>
       <c r="F9">
-        <v>-0.0283577299824572</v>
+        <v>0.001052209127360441</v>
       </c>
       <c r="G9">
-        <v>-0.06486295206305154</v>
+        <v>-0.01868490001426812</v>
       </c>
       <c r="H9">
-        <v>0.04244498413378747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.06984086595638553</v>
+      </c>
+      <c r="I9">
+        <v>-0.1145954438783591</v>
+      </c>
+      <c r="J9">
+        <v>-0.0282474393990323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0369275769522629</v>
+        <v>-0.07316924230414036</v>
       </c>
       <c r="C10">
-        <v>0.1728913197627316</v>
+        <v>-0.1879479011876203</v>
       </c>
       <c r="D10">
-        <v>-0.04835418290400675</v>
+        <v>0.02196331252557835</v>
       </c>
       <c r="E10">
-        <v>-0.09772873843054193</v>
+        <v>-0.009900194294303659</v>
       </c>
       <c r="F10">
-        <v>0.009037527102805845</v>
+        <v>0.01130990231930389</v>
       </c>
       <c r="G10">
-        <v>0.02361849572353579</v>
+        <v>-0.06491728334943901</v>
       </c>
       <c r="H10">
-        <v>0.03001802720864905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.006498502031328582</v>
+      </c>
+      <c r="I10">
+        <v>0.0007117945088795883</v>
+      </c>
+      <c r="J10">
+        <v>-0.01554585956604238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07686234464916335</v>
+        <v>-0.08603499636337326</v>
       </c>
       <c r="C11">
-        <v>-0.06171666133309622</v>
+        <v>0.05288571442861641</v>
       </c>
       <c r="D11">
-        <v>0.005512272269098965</v>
+        <v>-0.02510893317110918</v>
       </c>
       <c r="E11">
-        <v>-0.03406872047958372</v>
+        <v>0.02486040346761157</v>
       </c>
       <c r="F11">
-        <v>-0.006369066178353989</v>
+        <v>-0.03414746567311615</v>
       </c>
       <c r="G11">
-        <v>-0.1579599599268193</v>
+        <v>0.001729490516690854</v>
       </c>
       <c r="H11">
-        <v>-0.05734576626104854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.0859092581485414</v>
+      </c>
+      <c r="I11">
+        <v>-0.08750727399550849</v>
+      </c>
+      <c r="J11">
+        <v>-0.01195593189445427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07361159364735544</v>
+        <v>-0.08826327229214967</v>
       </c>
       <c r="C12">
-        <v>-0.04160667459098794</v>
+        <v>0.06017652347666108</v>
       </c>
       <c r="D12">
-        <v>-0.03106374431984151</v>
+        <v>-0.02863287501987784</v>
       </c>
       <c r="E12">
-        <v>-0.0129200816717019</v>
+        <v>0.03203402486566504</v>
       </c>
       <c r="F12">
-        <v>0.0136309218478834</v>
+        <v>-0.05590890928348251</v>
       </c>
       <c r="G12">
-        <v>-0.1455097562829715</v>
+        <v>-0.008960374779084086</v>
       </c>
       <c r="H12">
-        <v>-0.02852665138317657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.09750502219089863</v>
+      </c>
+      <c r="I12">
+        <v>-0.07972149476046783</v>
+      </c>
+      <c r="J12">
+        <v>0.0116008905848416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06380884556352906</v>
+        <v>-0.04776557357788105</v>
       </c>
       <c r="C13">
-        <v>-0.006406839422670983</v>
+        <v>0.03092471191674483</v>
       </c>
       <c r="D13">
-        <v>-0.02750967413020367</v>
+        <v>0.02376721765352083</v>
       </c>
       <c r="E13">
-        <v>-0.004016444078771693</v>
+        <v>0.01079888297916825</v>
       </c>
       <c r="F13">
-        <v>-0.05394808982723159</v>
+        <v>0.02753340969188897</v>
       </c>
       <c r="G13">
-        <v>-0.06453999964688299</v>
+        <v>-0.009934672024692066</v>
       </c>
       <c r="H13">
-        <v>-0.00165591157617756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.06056076577108915</v>
+      </c>
+      <c r="I13">
+        <v>-0.05925805018987101</v>
+      </c>
+      <c r="J13">
+        <v>0.01728632972630418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05299082546482337</v>
+        <v>-0.03656978728886786</v>
       </c>
       <c r="C14">
-        <v>-0.006916977353176183</v>
+        <v>0.003614120089014294</v>
       </c>
       <c r="D14">
-        <v>-0.0449645041316042</v>
+        <v>-0.006993823755174402</v>
       </c>
       <c r="E14">
-        <v>-0.04829222118279065</v>
+        <v>-0.007458743972946967</v>
       </c>
       <c r="F14">
-        <v>-0.03621579977163467</v>
+        <v>-0.008844822305360276</v>
       </c>
       <c r="G14">
-        <v>-0.02027221007070656</v>
+        <v>-0.008938771359501918</v>
       </c>
       <c r="H14">
-        <v>0.146424543561309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03929164628084997</v>
+      </c>
+      <c r="I14">
+        <v>-0.05396616257016373</v>
+      </c>
+      <c r="J14">
+        <v>-0.07008870134823367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03731990770320318</v>
+        <v>-0.02785092016210262</v>
       </c>
       <c r="C15">
-        <v>0.01201592458648853</v>
+        <v>0.009487407923194606</v>
       </c>
       <c r="D15">
-        <v>-0.01036546469962175</v>
+        <v>0.01077226920141623</v>
       </c>
       <c r="E15">
-        <v>-0.01975033525491015</v>
+        <v>0.01199708563267053</v>
       </c>
       <c r="F15">
-        <v>-0.0064431643096734</v>
+        <v>0.0373347215444013</v>
       </c>
       <c r="G15">
-        <v>-0.009649102894283263</v>
+        <v>-0.008267600559536474</v>
       </c>
       <c r="H15">
-        <v>0.06325501846487148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0198677508813652</v>
+      </c>
+      <c r="I15">
+        <v>-0.01590914172671779</v>
+      </c>
+      <c r="J15">
+        <v>-0.01399051610870292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08188161539992682</v>
+        <v>-0.09216747388432894</v>
       </c>
       <c r="C16">
-        <v>-0.06914385975724796</v>
+        <v>0.05644032738781056</v>
       </c>
       <c r="D16">
-        <v>-0.03331725165781652</v>
+        <v>-0.03747357931571393</v>
       </c>
       <c r="E16">
-        <v>-0.01410074117798453</v>
+        <v>0.03588825699373305</v>
       </c>
       <c r="F16">
-        <v>-0.042725864618889</v>
+        <v>-0.03785128071601047</v>
       </c>
       <c r="G16">
-        <v>-0.1172925038425235</v>
+        <v>-0.0002191108020790837</v>
       </c>
       <c r="H16">
-        <v>-0.05836997730454224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.1087652334312623</v>
+      </c>
+      <c r="I16">
+        <v>-0.06254459772288631</v>
+      </c>
+      <c r="J16">
+        <v>-0.01697305688244592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05610649055021312</v>
+        <v>-0.05233977285464457</v>
       </c>
       <c r="C20">
-        <v>-0.01843618417466499</v>
+        <v>0.02324347084531814</v>
       </c>
       <c r="D20">
-        <v>-0.01945966821310401</v>
+        <v>-0.03273132083354936</v>
       </c>
       <c r="E20">
-        <v>-0.01815693788046243</v>
+        <v>0.001506752365003008</v>
       </c>
       <c r="F20">
-        <v>-0.003405628318459143</v>
+        <v>0.01481684228716249</v>
       </c>
       <c r="G20">
-        <v>-0.1048908579633754</v>
+        <v>-0.004239903141774993</v>
       </c>
       <c r="H20">
-        <v>-0.002525912900625853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04459610839949722</v>
+      </c>
+      <c r="I20">
+        <v>-0.04677419532903351</v>
+      </c>
+      <c r="J20">
+        <v>-0.03031774462209229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02980591694475256</v>
+        <v>-0.02653510761944716</v>
       </c>
       <c r="C21">
-        <v>-0.03757504861797412</v>
+        <v>0.001765262149118544</v>
       </c>
       <c r="D21">
-        <v>-0.01475650641965598</v>
+        <v>-0.01109612067140559</v>
       </c>
       <c r="E21">
-        <v>-0.008956018286641981</v>
+        <v>-0.03973359457660383</v>
       </c>
       <c r="F21">
-        <v>0.07125263674503447</v>
+        <v>0.01582425401004908</v>
       </c>
       <c r="G21">
-        <v>0.1087237864840547</v>
+        <v>0.02943435277470396</v>
       </c>
       <c r="H21">
-        <v>0.1000762310661925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.01409353204839119</v>
+      </c>
+      <c r="I21">
+        <v>-0.0781532758461695</v>
+      </c>
+      <c r="J21">
+        <v>0.005924730781369111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04448278459515063</v>
+        <v>-0.03449604982501865</v>
       </c>
       <c r="C22">
-        <v>-0.01972078115797985</v>
+        <v>-0.01399279869713369</v>
       </c>
       <c r="D22">
-        <v>-0.5175453440109941</v>
+        <v>-0.0101471764844912</v>
       </c>
       <c r="E22">
-        <v>0.2384560575746899</v>
+        <v>0.1569073925480965</v>
       </c>
       <c r="F22">
-        <v>-0.1092242751138368</v>
+        <v>0.6239645267738182</v>
       </c>
       <c r="G22">
-        <v>0.3050987836575466</v>
+        <v>-0.07330333861883769</v>
       </c>
       <c r="H22">
-        <v>-0.1130781750244626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.126356158184365</v>
+      </c>
+      <c r="I22">
+        <v>0.1468189451155853</v>
+      </c>
+      <c r="J22">
+        <v>0.02963438214458592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04461553819177087</v>
+        <v>-0.03468501026320345</v>
       </c>
       <c r="C23">
-        <v>-0.02012355150840897</v>
+        <v>-0.01371773839938036</v>
       </c>
       <c r="D23">
-        <v>-0.5171413726797301</v>
+        <v>-0.01056838360005408</v>
       </c>
       <c r="E23">
-        <v>0.2360196867376772</v>
+        <v>0.1586497971140581</v>
       </c>
       <c r="F23">
-        <v>-0.1104928270119116</v>
+        <v>0.6258324017273698</v>
       </c>
       <c r="G23">
-        <v>0.3060989303288412</v>
+        <v>-0.07311428743254854</v>
       </c>
       <c r="H23">
-        <v>-0.1123669663045533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.128071199923628</v>
+      </c>
+      <c r="I23">
+        <v>0.1434617433454972</v>
+      </c>
+      <c r="J23">
+        <v>0.02841476926016635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08586027861985678</v>
+        <v>-0.09654859805537654</v>
       </c>
       <c r="C24">
-        <v>-0.04920352856001683</v>
+        <v>0.05337695334850123</v>
       </c>
       <c r="D24">
-        <v>-0.03778103636186676</v>
+        <v>-0.034457185403439</v>
       </c>
       <c r="E24">
-        <v>-0.03204854293448131</v>
+        <v>0.0231553421837189</v>
       </c>
       <c r="F24">
-        <v>-0.004034005933539198</v>
+        <v>-0.03453242308614293</v>
       </c>
       <c r="G24">
-        <v>-0.1217747607054292</v>
+        <v>-0.01531648231312678</v>
       </c>
       <c r="H24">
-        <v>-0.02527499108371085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.1082243945916546</v>
+      </c>
+      <c r="I24">
+        <v>-0.06203982590390934</v>
+      </c>
+      <c r="J24">
+        <v>-0.002061634692754088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07681602024862008</v>
+        <v>-0.09455620992942063</v>
       </c>
       <c r="C25">
-        <v>-0.02288141520553528</v>
+        <v>0.03529415862565864</v>
       </c>
       <c r="D25">
-        <v>-0.03237593975772966</v>
+        <v>-0.0250969890535516</v>
       </c>
       <c r="E25">
-        <v>-0.02041644664724751</v>
+        <v>0.02370650083138812</v>
       </c>
       <c r="F25">
-        <v>0.01037350745860672</v>
+        <v>-0.06013023553946053</v>
       </c>
       <c r="G25">
-        <v>-0.1171391295370095</v>
+        <v>-0.01217774122357666</v>
       </c>
       <c r="H25">
-        <v>-0.02624739540700992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.1007373689056698</v>
+      </c>
+      <c r="I25">
+        <v>-0.05632390036558073</v>
+      </c>
+      <c r="J25">
+        <v>-0.02381120112938439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05243940263016252</v>
+        <v>-0.04088178007806034</v>
       </c>
       <c r="C26">
-        <v>-0.02272948734630414</v>
+        <v>-0.01430289554318221</v>
       </c>
       <c r="D26">
-        <v>-0.02423638852896475</v>
+        <v>-0.02291403990126172</v>
       </c>
       <c r="E26">
-        <v>-0.04926901256880675</v>
+        <v>-0.003877819726996348</v>
       </c>
       <c r="F26">
-        <v>-0.03885779221313596</v>
+        <v>0.009877422283839199</v>
       </c>
       <c r="G26">
-        <v>-0.05505437667699645</v>
+        <v>0.02107233613683704</v>
       </c>
       <c r="H26">
-        <v>0.07686291358427143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05758208503792155</v>
+      </c>
+      <c r="I26">
+        <v>-0.0328928768163382</v>
+      </c>
+      <c r="J26">
+        <v>-0.04366340130582985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.05986835286324049</v>
+        <v>-0.08154710094806775</v>
       </c>
       <c r="C28">
-        <v>0.3065017453558239</v>
+        <v>-0.3035669422932936</v>
       </c>
       <c r="D28">
-        <v>0.01030423657864353</v>
+        <v>0.1067814629622906</v>
       </c>
       <c r="E28">
-        <v>-0.02584694374717177</v>
+        <v>0.001559992238211002</v>
       </c>
       <c r="F28">
-        <v>0.04789439451931076</v>
+        <v>-0.02272080253741641</v>
       </c>
       <c r="G28">
-        <v>0.01969480006707347</v>
+        <v>-0.002260975183962176</v>
       </c>
       <c r="H28">
-        <v>-0.06105212618791114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.03844462727902024</v>
+      </c>
+      <c r="I28">
+        <v>-0.01569598111941931</v>
+      </c>
+      <c r="J28">
+        <v>0.01669495264013253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.06054839932062871</v>
+        <v>-0.03792748636106011</v>
       </c>
       <c r="C29">
-        <v>-0.001043352283679926</v>
+        <v>0.005113282422780467</v>
       </c>
       <c r="D29">
-        <v>-0.05005855407768098</v>
+        <v>0.006127621851132258</v>
       </c>
       <c r="E29">
-        <v>-0.02116854147154261</v>
+        <v>0.0006640239193999893</v>
       </c>
       <c r="F29">
-        <v>-0.03661792309096434</v>
+        <v>-0.01022016219966914</v>
       </c>
       <c r="G29">
-        <v>-0.03274015454534446</v>
+        <v>-0.02601209408498683</v>
       </c>
       <c r="H29">
-        <v>0.08927777115336859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.07835240270628663</v>
+      </c>
+      <c r="I29">
+        <v>-0.03798407002710261</v>
+      </c>
+      <c r="J29">
+        <v>-0.05581092760005392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1167999987909977</v>
+        <v>-0.1173714866949138</v>
       </c>
       <c r="C30">
-        <v>0.02707317987363176</v>
+        <v>0.07317366498721964</v>
       </c>
       <c r="D30">
-        <v>-0.2282404471538476</v>
+        <v>0.007439932266706827</v>
       </c>
       <c r="E30">
-        <v>-0.009706127442082232</v>
+        <v>0.04140798650557768</v>
       </c>
       <c r="F30">
-        <v>0.1025023446709098</v>
+        <v>-0.012438878020896</v>
       </c>
       <c r="G30">
-        <v>-0.1614918245355297</v>
+        <v>0.03402705321611397</v>
       </c>
       <c r="H30">
-        <v>-0.04088100884152516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1896626164798064</v>
+      </c>
+      <c r="I30">
+        <v>-0.1160150440414118</v>
+      </c>
+      <c r="J30">
+        <v>0.2602367124168826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05609712189225018</v>
+        <v>-0.03752935406973831</v>
       </c>
       <c r="C31">
-        <v>-0.02157608991757362</v>
+        <v>0.01866313587445785</v>
       </c>
       <c r="D31">
-        <v>-0.003092200226034598</v>
+        <v>-0.0180756211294616</v>
       </c>
       <c r="E31">
-        <v>0.01861213260576906</v>
+        <v>0.01621386688987512</v>
       </c>
       <c r="F31">
-        <v>-0.03809976971466645</v>
+        <v>0.0009220143372622003</v>
       </c>
       <c r="G31">
-        <v>-0.01128055398985219</v>
+        <v>-0.004940884531523631</v>
       </c>
       <c r="H31">
-        <v>0.02246658204548733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.02391667577509823</v>
+      </c>
+      <c r="I31">
+        <v>-0.01835253071959264</v>
+      </c>
+      <c r="J31">
+        <v>-0.05953022731144596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03191151182351792</v>
+        <v>-0.05628146912321277</v>
       </c>
       <c r="C32">
-        <v>0.01137733903713687</v>
+        <v>0.002460668078291519</v>
       </c>
       <c r="D32">
-        <v>-0.08870870683478138</v>
+        <v>-0.02073939426196574</v>
       </c>
       <c r="E32">
-        <v>0.04616592463052824</v>
+        <v>-0.01100297813830408</v>
       </c>
       <c r="F32">
-        <v>-0.1187899175137516</v>
+        <v>-0.04255526328852737</v>
       </c>
       <c r="G32">
-        <v>-0.0300357848291284</v>
+        <v>0.04417598334699708</v>
       </c>
       <c r="H32">
-        <v>-0.006088298222231724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03262551473473387</v>
+      </c>
+      <c r="I32">
+        <v>-0.02152761941779131</v>
+      </c>
+      <c r="J32">
+        <v>0.00610434814257536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1123631251995083</v>
+        <v>-0.109021204039746</v>
       </c>
       <c r="C33">
-        <v>-0.0147851389328486</v>
+        <v>0.04998802179645533</v>
       </c>
       <c r="D33">
-        <v>-0.01094236648843617</v>
+        <v>0.0008870145898483085</v>
       </c>
       <c r="E33">
-        <v>0.02400135287155096</v>
+        <v>0.06674508951382874</v>
       </c>
       <c r="F33">
-        <v>-0.02083653371544432</v>
+        <v>-0.03331947479109939</v>
       </c>
       <c r="G33">
-        <v>-0.07898613982077458</v>
+        <v>0.001302071026471436</v>
       </c>
       <c r="H33">
-        <v>0.06168914892687143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.04875289447085009</v>
+      </c>
+      <c r="I33">
+        <v>-0.04117169254439258</v>
+      </c>
+      <c r="J33">
+        <v>-0.02391110848880348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06840603351615619</v>
+        <v>-0.08301625947364726</v>
       </c>
       <c r="C34">
-        <v>-0.04331039637883551</v>
+        <v>0.04744050808584381</v>
       </c>
       <c r="D34">
-        <v>-0.01114299582452564</v>
+        <v>-0.03527090069576404</v>
       </c>
       <c r="E34">
-        <v>-0.00256717353658763</v>
+        <v>0.03315077407890966</v>
       </c>
       <c r="F34">
-        <v>-0.0268247669296914</v>
+        <v>-0.04064740816304625</v>
       </c>
       <c r="G34">
-        <v>-0.09851398391411478</v>
+        <v>-0.005210316205019765</v>
       </c>
       <c r="H34">
-        <v>-0.02074937573437622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1129116530121373</v>
+      </c>
+      <c r="I34">
+        <v>-0.06611915008074055</v>
+      </c>
+      <c r="J34">
+        <v>-0.0298456048319747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04447842198978446</v>
+        <v>-0.02256785661406591</v>
       </c>
       <c r="C35">
-        <v>-0.0085763193197311</v>
+        <v>0.01361620490012027</v>
       </c>
       <c r="D35">
-        <v>0.0004736347953908118</v>
+        <v>0.005754795768677535</v>
       </c>
       <c r="E35">
-        <v>0.012560046336001</v>
+        <v>0.002715107349654116</v>
       </c>
       <c r="F35">
-        <v>0.0558285345529674</v>
+        <v>-0.003380340645300727</v>
       </c>
       <c r="G35">
-        <v>-0.04350027015540659</v>
+        <v>-0.00634428250331818</v>
       </c>
       <c r="H35">
-        <v>-0.02234579441024661</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05076818557510649</v>
+      </c>
+      <c r="I35">
+        <v>-0.01677641627278617</v>
+      </c>
+      <c r="J35">
+        <v>-0.03760541122751493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.04024371321077661</v>
+        <v>-0.02936776300775904</v>
       </c>
       <c r="C36">
-        <v>0.000138015231224076</v>
+        <v>0.00200510880304048</v>
       </c>
       <c r="D36">
-        <v>-0.04419641963438775</v>
+        <v>0.007148853771038913</v>
       </c>
       <c r="E36">
-        <v>-0.01331142663133425</v>
+        <v>0.0001119398849761744</v>
       </c>
       <c r="F36">
-        <v>-0.002145376734642105</v>
+        <v>0.01360156224645934</v>
       </c>
       <c r="G36">
-        <v>-0.05344727607650276</v>
+        <v>0.01495512586851034</v>
       </c>
       <c r="H36">
-        <v>0.04440536734530726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.03686744643969558</v>
+      </c>
+      <c r="I36">
+        <v>-0.04901148610905215</v>
+      </c>
+      <c r="J36">
+        <v>-0.01573133748418848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05524859244150427</v>
+        <v>-0.01926787324760136</v>
       </c>
       <c r="C38">
-        <v>-0.01638872129390999</v>
+        <v>0.01026563255626609</v>
       </c>
       <c r="D38">
-        <v>-0.01427830057773497</v>
+        <v>-0.009491022482351679</v>
       </c>
       <c r="E38">
-        <v>-0.009323024594293121</v>
+        <v>0.01668728377368528</v>
       </c>
       <c r="F38">
-        <v>-0.02918896209252934</v>
+        <v>0.01848353849870761</v>
       </c>
       <c r="G38">
-        <v>-0.05944084417821321</v>
+        <v>-0.01615831461783018</v>
       </c>
       <c r="H38">
-        <v>-0.009461754181001807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01904017396282415</v>
+      </c>
+      <c r="I38">
+        <v>0.04064533246960392</v>
+      </c>
+      <c r="J38">
+        <v>0.002048104337460944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1082703744827883</v>
+        <v>-0.137165721179294</v>
       </c>
       <c r="C39">
-        <v>-0.04028392664335242</v>
+        <v>0.08467483647280606</v>
       </c>
       <c r="D39">
-        <v>-0.07130252587745578</v>
+        <v>-0.02698373253737018</v>
       </c>
       <c r="E39">
-        <v>-0.009413806357922818</v>
+        <v>0.03774128852205392</v>
       </c>
       <c r="F39">
-        <v>-0.005092375489441981</v>
+        <v>-0.117325580911376</v>
       </c>
       <c r="G39">
-        <v>-0.1442978475827942</v>
+        <v>-0.01089020764197374</v>
       </c>
       <c r="H39">
-        <v>-0.1168638421234538</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1491693493804643</v>
+      </c>
+      <c r="I39">
+        <v>-0.03334407078139465</v>
+      </c>
+      <c r="J39">
+        <v>-0.01944013757079788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.05072193463699316</v>
+        <v>-0.01837672851424816</v>
       </c>
       <c r="C40">
-        <v>-0.0236857640255788</v>
+        <v>0.02386961346168826</v>
       </c>
       <c r="D40">
-        <v>-0.08772931717781438</v>
+        <v>-0.01955765890401438</v>
       </c>
       <c r="E40">
-        <v>0.03017145738483851</v>
+        <v>0.0008566869422278033</v>
       </c>
       <c r="F40">
-        <v>0.0492326522266354</v>
+        <v>0.06999401961253619</v>
       </c>
       <c r="G40">
-        <v>-0.2898672970847525</v>
+        <v>-0.004016616238937379</v>
       </c>
       <c r="H40">
-        <v>-0.08269845949991206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07404816871050104</v>
+      </c>
+      <c r="I40">
+        <v>-0.09035315948936645</v>
+      </c>
+      <c r="J40">
+        <v>0.02981495936854619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04854355118077699</v>
+        <v>-0.02710298118992099</v>
       </c>
       <c r="C41">
-        <v>-0.02846861737045119</v>
+        <v>-0.001920962730078721</v>
       </c>
       <c r="D41">
-        <v>0.01344904539256941</v>
+        <v>-0.0325096396867701</v>
       </c>
       <c r="E41">
-        <v>-0.0116910345995688</v>
+        <v>0.004905003560233329</v>
       </c>
       <c r="F41">
-        <v>-0.03138153271933306</v>
+        <v>-0.01185666142103382</v>
       </c>
       <c r="G41">
-        <v>-0.05950368135753075</v>
+        <v>-0.009755230148812527</v>
       </c>
       <c r="H41">
-        <v>-0.02618020124536869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01436832511275096</v>
+      </c>
+      <c r="I41">
+        <v>-0.01084871994271254</v>
+      </c>
+      <c r="J41">
+        <v>-0.03168590146057889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07598309641818884</v>
+        <v>-0.04427559496752729</v>
       </c>
       <c r="C43">
-        <v>-0.02529454740389154</v>
+        <v>0.0006467627291602552</v>
       </c>
       <c r="D43">
-        <v>-0.02819413605724497</v>
+        <v>-0.03390857442407543</v>
       </c>
       <c r="E43">
-        <v>-0.009517586355976678</v>
+        <v>0.03093327078730606</v>
       </c>
       <c r="F43">
-        <v>-0.02958565086841929</v>
+        <v>-0.0005173748521849787</v>
       </c>
       <c r="G43">
-        <v>-0.006331385266932507</v>
+        <v>-0.004449137537509254</v>
       </c>
       <c r="H43">
-        <v>-0.02080895709902635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.03687097039004441</v>
+      </c>
+      <c r="I43">
+        <v>0.01074751857074648</v>
+      </c>
+      <c r="J43">
+        <v>-0.0451305058999049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.07947762135562807</v>
+        <v>-0.1240309322560263</v>
       </c>
       <c r="C44">
-        <v>-0.009868361838058217</v>
+        <v>0.09119712025143084</v>
       </c>
       <c r="D44">
-        <v>-0.07412914394979293</v>
+        <v>1.36321452382304e-05</v>
       </c>
       <c r="E44">
-        <v>-0.08939934254903412</v>
+        <v>0.04544706179273638</v>
       </c>
       <c r="F44">
-        <v>-0.07564091004290102</v>
+        <v>0.07903069357188791</v>
       </c>
       <c r="G44">
-        <v>-0.08108434299893283</v>
+        <v>-0.09145163105283206</v>
       </c>
       <c r="H44">
-        <v>-0.00592338062913895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2075953572045772</v>
+      </c>
+      <c r="I44">
+        <v>-0.1106598991090584</v>
+      </c>
+      <c r="J44">
+        <v>0.1191695285776131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05284891888094752</v>
+        <v>-0.0255668929034358</v>
       </c>
       <c r="C46">
-        <v>-0.03838035137165082</v>
+        <v>-0.00585028683844758</v>
       </c>
       <c r="D46">
-        <v>-0.04841054402364706</v>
+        <v>-0.02233480819891677</v>
       </c>
       <c r="E46">
-        <v>0.002165013933967969</v>
+        <v>0.02978119320275625</v>
       </c>
       <c r="F46">
-        <v>-0.02263863072928369</v>
+        <v>0.03123525509338671</v>
       </c>
       <c r="G46">
-        <v>-0.02046222664000991</v>
+        <v>-0.02062938070217062</v>
       </c>
       <c r="H46">
-        <v>0.08552546519915911</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05304637068688847</v>
+      </c>
+      <c r="I46">
+        <v>-0.02001717846425829</v>
+      </c>
+      <c r="J46">
+        <v>-0.05120472632838973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05075775286841842</v>
+        <v>-0.04090275986804236</v>
       </c>
       <c r="C47">
-        <v>0.0009823320756853361</v>
+        <v>-0.0007456720080551709</v>
       </c>
       <c r="D47">
-        <v>-0.06071716950397469</v>
+        <v>-0.01085544059454334</v>
       </c>
       <c r="E47">
-        <v>0.02992906659694325</v>
+        <v>0.007097480073483015</v>
       </c>
       <c r="F47">
-        <v>-0.000860773140279433</v>
+        <v>0.01441717796218571</v>
       </c>
       <c r="G47">
-        <v>-0.001298222065315244</v>
+        <v>0.006738991798220614</v>
       </c>
       <c r="H47">
-        <v>0.0325399059926022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.04398829390836561</v>
+      </c>
+      <c r="I47">
+        <v>-0.01576976331841363</v>
+      </c>
+      <c r="J47">
+        <v>-0.04354523163648304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04286322310981416</v>
+        <v>-0.03970271056603484</v>
       </c>
       <c r="C48">
-        <v>-0.001984542174557055</v>
+        <v>0.004010275957339364</v>
       </c>
       <c r="D48">
-        <v>-0.03607520510912904</v>
+        <v>0.01268321823704832</v>
       </c>
       <c r="E48">
-        <v>0.03545646806577778</v>
+        <v>0.003621204894183934</v>
       </c>
       <c r="F48">
-        <v>0.009969462555790832</v>
+        <v>0.003724489827771558</v>
       </c>
       <c r="G48">
-        <v>-0.04959801340549216</v>
+        <v>0.01532311143785139</v>
       </c>
       <c r="H48">
-        <v>0.01027615162519245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05330126384354024</v>
+      </c>
+      <c r="I48">
+        <v>-0.0417414884404843</v>
+      </c>
+      <c r="J48">
+        <v>-0.03217242562796385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2370546405426131</v>
+        <v>-0.2283220755284806</v>
       </c>
       <c r="C49">
-        <v>-0.06428025630465178</v>
+        <v>0.002571680798867648</v>
       </c>
       <c r="D49">
-        <v>0.08317485812295788</v>
+        <v>-0.07372900861552961</v>
       </c>
       <c r="E49">
-        <v>-0.04972143939108936</v>
+        <v>-0.01913193717310942</v>
       </c>
       <c r="F49">
-        <v>0.1021464315361269</v>
+        <v>-0.03710141332919648</v>
       </c>
       <c r="G49">
-        <v>0.1122151502517229</v>
+        <v>-0.06647261788764532</v>
       </c>
       <c r="H49">
-        <v>-0.09920867772221169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.2058591909607465</v>
+      </c>
+      <c r="I49">
+        <v>0.1377948102385281</v>
+      </c>
+      <c r="J49">
+        <v>0.2071037462821267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05607686260763509</v>
+        <v>-0.04386937058797544</v>
       </c>
       <c r="C50">
-        <v>-0.01389452397108845</v>
+        <v>0.01053883082306994</v>
       </c>
       <c r="D50">
-        <v>-0.01312734909709554</v>
+        <v>-0.02599751243513746</v>
       </c>
       <c r="E50">
-        <v>0.026305710399789</v>
+        <v>0.008616325072749056</v>
       </c>
       <c r="F50">
-        <v>-0.0446501211422223</v>
+        <v>-0.00249415083050787</v>
       </c>
       <c r="G50">
-        <v>-0.004689934239460247</v>
+        <v>-0.002886810104131047</v>
       </c>
       <c r="H50">
-        <v>0.05628242971614428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.05038925586430296</v>
+      </c>
+      <c r="I50">
+        <v>-0.02078289178022215</v>
+      </c>
+      <c r="J50">
+        <v>-0.03283604844607135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03510823479303309</v>
+        <v>-0.01632469312235088</v>
       </c>
       <c r="C51">
-        <v>-0.009854394165547023</v>
+        <v>-0.00799950852666911</v>
       </c>
       <c r="D51">
-        <v>-5.79027197586529e-05</v>
+        <v>-0.001700203743471935</v>
       </c>
       <c r="E51">
-        <v>-0.02286364255537083</v>
+        <v>0.01786493702576084</v>
       </c>
       <c r="F51">
-        <v>-0.02266240996485404</v>
+        <v>0.003984576198498772</v>
       </c>
       <c r="G51">
-        <v>0.01772542538960889</v>
+        <v>-0.02277524821056276</v>
       </c>
       <c r="H51">
-        <v>-0.04112473922916345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02503338653898763</v>
+      </c>
+      <c r="I51">
+        <v>0.003237597735384771</v>
+      </c>
+      <c r="J51">
+        <v>0.009560707815447381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.09662966432087533</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.0685719435464715</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02605819212670275</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02197348601024821</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02183149710947809</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.005704695694876162</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.08686679254737653</v>
+      </c>
+      <c r="I52">
+        <v>0.04801442411710745</v>
+      </c>
+      <c r="J52">
+        <v>-0.1187393928519841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1619678427993248</v>
+        <v>-0.1564021978320692</v>
       </c>
       <c r="C53">
-        <v>0.009126035857686151</v>
+        <v>0.01116016317856613</v>
       </c>
       <c r="D53">
-        <v>0.07521304857840912</v>
+        <v>0.004441838237724494</v>
       </c>
       <c r="E53">
-        <v>0.05921608218090837</v>
+        <v>0.004955598427591744</v>
       </c>
       <c r="F53">
-        <v>-0.2149537755843892</v>
+        <v>0.002790909603792807</v>
       </c>
       <c r="G53">
-        <v>0.03213141126240096</v>
+        <v>-0.0242852970090768</v>
       </c>
       <c r="H53">
-        <v>0.03897848545033076</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.01964885338445033</v>
+      </c>
+      <c r="I53">
+        <v>0.105789601669902</v>
+      </c>
+      <c r="J53">
+        <v>-0.1932704486094933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05606302955473393</v>
+        <v>-0.05245628539019891</v>
       </c>
       <c r="C54">
-        <v>-0.006666011674524326</v>
+        <v>0.011242886180074</v>
       </c>
       <c r="D54">
-        <v>-0.04240719228680843</v>
+        <v>-0.01307445808877936</v>
       </c>
       <c r="E54">
-        <v>-0.009768096062196804</v>
+        <v>0.008520361663752571</v>
       </c>
       <c r="F54">
-        <v>-0.01518300173218321</v>
+        <v>0.02784359028180503</v>
       </c>
       <c r="G54">
-        <v>-0.05436056322703653</v>
+        <v>0.006611980161848186</v>
       </c>
       <c r="H54">
-        <v>0.1025949095873493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06118509991195323</v>
+      </c>
+      <c r="I54">
+        <v>-0.1241409443898575</v>
+      </c>
+      <c r="J54">
+        <v>-0.0569520224488059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09618073715905573</v>
+        <v>-0.08878514355104757</v>
       </c>
       <c r="C55">
-        <v>-0.004980227356405913</v>
+        <v>0.02170857944113211</v>
       </c>
       <c r="D55">
-        <v>0.01959781413261351</v>
+        <v>0.01938763912420262</v>
       </c>
       <c r="E55">
-        <v>0.03438636909918325</v>
+        <v>0.0403853145138014</v>
       </c>
       <c r="F55">
-        <v>-0.1590325058976515</v>
+        <v>-0.02427465306177877</v>
       </c>
       <c r="G55">
-        <v>-0.01020464908191464</v>
+        <v>-0.005519238082577769</v>
       </c>
       <c r="H55">
-        <v>0.0666986661620884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01762971379387634</v>
+      </c>
+      <c r="I55">
+        <v>0.02412657646353328</v>
+      </c>
+      <c r="J55">
+        <v>-0.1377287753850831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1641191477618609</v>
+        <v>-0.1623937999029812</v>
       </c>
       <c r="C56">
-        <v>0.009819786093003314</v>
+        <v>0.02734392625223528</v>
       </c>
       <c r="D56">
-        <v>0.08565551819788286</v>
+        <v>-0.009854426755824545</v>
       </c>
       <c r="E56">
-        <v>0.09178053231549327</v>
+        <v>0.02399939728145462</v>
       </c>
       <c r="F56">
-        <v>-0.2059659367354982</v>
+        <v>-0.02549776705235993</v>
       </c>
       <c r="G56">
-        <v>0.01709542956660216</v>
+        <v>-0.02394085868169605</v>
       </c>
       <c r="H56">
-        <v>0.05056023440551655</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.04854500541446608</v>
+      </c>
+      <c r="I56">
+        <v>0.08183916097621674</v>
+      </c>
+      <c r="J56">
+        <v>-0.1558922272781677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.02023127132520077</v>
+        <v>-0.03396185906248634</v>
       </c>
       <c r="C58">
-        <v>-0.08174426396467173</v>
+        <v>0.005975818175497433</v>
       </c>
       <c r="D58">
-        <v>-0.2287929031408943</v>
+        <v>-0.02076861711083903</v>
       </c>
       <c r="E58">
-        <v>0.04660820965174896</v>
+        <v>0.01444148100921181</v>
       </c>
       <c r="F58">
-        <v>0.3948814711403427</v>
+        <v>0.0895514498431825</v>
       </c>
       <c r="G58">
-        <v>-0.07655782958262414</v>
+        <v>0.01294194221549835</v>
       </c>
       <c r="H58">
-        <v>-0.1103053382918332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.06894350687251997</v>
+      </c>
+      <c r="I58">
+        <v>0.008796945605516296</v>
+      </c>
+      <c r="J58">
+        <v>0.007589523291134284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1460921874200486</v>
+        <v>-0.1536078282171358</v>
       </c>
       <c r="C59">
-        <v>0.3854309784430154</v>
+        <v>-0.291808114108641</v>
       </c>
       <c r="D59">
-        <v>0.03966717757325568</v>
+        <v>0.09479934029982423</v>
       </c>
       <c r="E59">
-        <v>-0.06136893298667333</v>
+        <v>0.01996161741593803</v>
       </c>
       <c r="F59">
-        <v>-0.05143929584362624</v>
+        <v>-0.05917694792218171</v>
       </c>
       <c r="G59">
-        <v>-0.01707343813901269</v>
+        <v>-0.03730581172247657</v>
       </c>
       <c r="H59">
-        <v>-0.03645293296776708</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.02794657105029871</v>
+      </c>
+      <c r="I59">
+        <v>-0.0370503932110776</v>
+      </c>
+      <c r="J59">
+        <v>-0.03045963507132855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2760653573761025</v>
+        <v>-0.280164329205498</v>
       </c>
       <c r="C60">
-        <v>-0.04961227250469525</v>
+        <v>0.1072943765441731</v>
       </c>
       <c r="D60">
-        <v>0.05526537472796549</v>
+        <v>-0.02312507475703785</v>
       </c>
       <c r="E60">
-        <v>-0.04949264893905133</v>
+        <v>-0.06092644710802803</v>
       </c>
       <c r="F60">
-        <v>0.05732242061736113</v>
+        <v>-0.02910743682027981</v>
       </c>
       <c r="G60">
-        <v>0.1462911529663785</v>
+        <v>-0.1268830969447433</v>
       </c>
       <c r="H60">
-        <v>-0.04618671292221153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.08657731911484896</v>
+      </c>
+      <c r="I60">
+        <v>0.1534538756308894</v>
+      </c>
+      <c r="J60">
+        <v>0.3399726923376177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09499172376969088</v>
+        <v>-0.1157775547310691</v>
       </c>
       <c r="C61">
-        <v>-0.02123850969252027</v>
+        <v>0.05379204572374374</v>
       </c>
       <c r="D61">
-        <v>-0.02479031041546183</v>
+        <v>0.005348977646722976</v>
       </c>
       <c r="E61">
-        <v>-0.01089045517991032</v>
+        <v>0.02101516714294509</v>
       </c>
       <c r="F61">
-        <v>-0.02841754348520235</v>
+        <v>-0.06488857757318307</v>
       </c>
       <c r="G61">
-        <v>-0.06183010093210434</v>
+        <v>-0.02286813895647123</v>
       </c>
       <c r="H61">
-        <v>-0.05179557294019638</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1264730830731165</v>
+      </c>
+      <c r="I61">
+        <v>-0.07798874101681647</v>
+      </c>
+      <c r="J61">
+        <v>-0.07055304123192661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1437442758886561</v>
+        <v>-0.157414317416652</v>
       </c>
       <c r="C62">
-        <v>-0.02219139142902987</v>
+        <v>0.03084061038690681</v>
       </c>
       <c r="D62">
-        <v>0.1392647702324027</v>
+        <v>-0.005758324334653429</v>
       </c>
       <c r="E62">
-        <v>0.07991171911774222</v>
+        <v>0.01164409908040791</v>
       </c>
       <c r="F62">
-        <v>-0.1720928511167262</v>
+        <v>-0.0259336787954214</v>
       </c>
       <c r="G62">
-        <v>0.0006809485603617201</v>
+        <v>0.00122299176907508</v>
       </c>
       <c r="H62">
-        <v>0.06350296865421622</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.01495396942806858</v>
+      </c>
+      <c r="I62">
+        <v>0.09546018864904306</v>
+      </c>
+      <c r="J62">
+        <v>-0.1414420263050668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04432559041356164</v>
+        <v>-0.04372357804852621</v>
       </c>
       <c r="C63">
-        <v>-0.01791593878282315</v>
+        <v>0.005869845805623526</v>
       </c>
       <c r="D63">
-        <v>-0.006512437060560071</v>
+        <v>0.00746222937119182</v>
       </c>
       <c r="E63">
-        <v>0.01775079934112367</v>
+        <v>0.0150217912010013</v>
       </c>
       <c r="F63">
-        <v>-0.006384323640104847</v>
+        <v>-0.003852115009037409</v>
       </c>
       <c r="G63">
-        <v>-0.04186281918720081</v>
+        <v>0.03896155047795567</v>
       </c>
       <c r="H63">
-        <v>0.1012155475545011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.04315190434199768</v>
+      </c>
+      <c r="I63">
+        <v>-0.04671453575719242</v>
+      </c>
+      <c r="J63">
+        <v>-0.03582098040868602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1111862235060956</v>
+        <v>-0.09894539249272682</v>
       </c>
       <c r="C64">
-        <v>-0.01097088262042822</v>
+        <v>0.01305950735801186</v>
       </c>
       <c r="D64">
-        <v>-0.05201259881840443</v>
+        <v>-0.01566896405920256</v>
       </c>
       <c r="E64">
-        <v>-0.03274524246998736</v>
+        <v>0.0003601212319453136</v>
       </c>
       <c r="F64">
-        <v>0.004322307407534465</v>
+        <v>0.005653796626858573</v>
       </c>
       <c r="G64">
-        <v>-0.05005780431507786</v>
+        <v>-0.05397074596684162</v>
       </c>
       <c r="H64">
-        <v>0.0005933899107991239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04860821397001908</v>
+      </c>
+      <c r="I64">
+        <v>-0.05133120430398418</v>
+      </c>
+      <c r="J64">
+        <v>0.05906335361811105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1130827059950236</v>
+        <v>-0.1184279744267006</v>
       </c>
       <c r="C65">
-        <v>-0.02668535299459242</v>
+        <v>0.005361768011120057</v>
       </c>
       <c r="D65">
-        <v>-0.05979905224550076</v>
+        <v>0.01953271533598229</v>
       </c>
       <c r="E65">
-        <v>0.00875013926229895</v>
+        <v>-0.01530068816882593</v>
       </c>
       <c r="F65">
-        <v>0.317909509541735</v>
+        <v>0.009892420728470424</v>
       </c>
       <c r="G65">
-        <v>0.1438682259167639</v>
+        <v>0.07356221264330269</v>
       </c>
       <c r="H65">
-        <v>0.6381379436765995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.03317977757985705</v>
+      </c>
+      <c r="I65">
+        <v>-0.05219906041591204</v>
+      </c>
+      <c r="J65">
+        <v>0.255843611734101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1572872366073692</v>
+        <v>-0.1662453198484186</v>
       </c>
       <c r="C66">
-        <v>-0.04810093240534908</v>
+        <v>0.1054719195402645</v>
       </c>
       <c r="D66">
-        <v>-0.03250129436196183</v>
+        <v>-0.04596354740493742</v>
       </c>
       <c r="E66">
-        <v>-0.06148416359053419</v>
+        <v>0.04593500327784782</v>
       </c>
       <c r="F66">
-        <v>-0.03791539394178651</v>
+        <v>-0.132563311549295</v>
       </c>
       <c r="G66">
-        <v>-0.2730351192656434</v>
+        <v>-0.0281816533351113</v>
       </c>
       <c r="H66">
-        <v>-0.2054891401080381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1558091646172595</v>
+      </c>
+      <c r="I66">
+        <v>-0.02120685490206554</v>
+      </c>
+      <c r="J66">
+        <v>-0.01737102401976247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1091016488572879</v>
+        <v>-0.07944448799121914</v>
       </c>
       <c r="C67">
-        <v>-0.03501854366309761</v>
+        <v>0.03929172016969417</v>
       </c>
       <c r="D67">
-        <v>0.004867358009356798</v>
+        <v>0.01242055812569158</v>
       </c>
       <c r="E67">
-        <v>-0.03796894455305896</v>
+        <v>0.07769178857967471</v>
       </c>
       <c r="F67">
-        <v>-0.05694142720222228</v>
+        <v>-0.00153436083800104</v>
       </c>
       <c r="G67">
-        <v>-0.03676622992819936</v>
+        <v>-0.03255866806807989</v>
       </c>
       <c r="H67">
-        <v>-0.01466497670789405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.07428952448526187</v>
+      </c>
+      <c r="I67">
+        <v>-0.000627103298267604</v>
+      </c>
+      <c r="J67">
+        <v>0.02473345354618448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03505418470212354</v>
+        <v>-0.06855447201285185</v>
       </c>
       <c r="C68">
-        <v>0.2932313980304597</v>
+        <v>-0.2728790547517109</v>
       </c>
       <c r="D68">
-        <v>0.005396023147285211</v>
+        <v>0.09809276884460752</v>
       </c>
       <c r="E68">
-        <v>0.02090636472050313</v>
+        <v>0.0004103930023525852</v>
       </c>
       <c r="F68">
-        <v>0.01035695656023643</v>
+        <v>-0.02990364370515371</v>
       </c>
       <c r="G68">
-        <v>0.01811489754453628</v>
+        <v>0.01513211244807878</v>
       </c>
       <c r="H68">
-        <v>0.02908726378341265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04268304834820544</v>
+      </c>
+      <c r="I68">
+        <v>-0.03507008328107891</v>
+      </c>
+      <c r="J68">
+        <v>0.01198447822757862</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05102813163578705</v>
+        <v>-0.03923277855770151</v>
       </c>
       <c r="C69">
-        <v>-0.01075354894479634</v>
+        <v>0.003767270259054433</v>
       </c>
       <c r="D69">
-        <v>0.01048141684323272</v>
+        <v>0.01240012375767555</v>
       </c>
       <c r="E69">
-        <v>0.03291229315229736</v>
+        <v>0.02179619460683497</v>
       </c>
       <c r="F69">
-        <v>0.0130344971701631</v>
+        <v>-4.290573050359485e-05</v>
       </c>
       <c r="G69">
-        <v>-0.01937271840726918</v>
+        <v>-0.001891983138152695</v>
       </c>
       <c r="H69">
-        <v>0.01815111818348977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01636282545236111</v>
+      </c>
+      <c r="I69">
+        <v>0.01342199532087203</v>
+      </c>
+      <c r="J69">
+        <v>-0.01720853747871384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08251114781774524</v>
+        <v>-0.03672289333195645</v>
       </c>
       <c r="C70">
-        <v>-0.01053604932075379</v>
+        <v>-0.007503727219484759</v>
       </c>
       <c r="D70">
-        <v>0.006486697496761438</v>
+        <v>0.01977821263516785</v>
       </c>
       <c r="E70">
-        <v>-0.06148533585600394</v>
+        <v>0.02341370072009666</v>
       </c>
       <c r="F70">
-        <v>-0.006079936634611633</v>
+        <v>-0.02428026775935239</v>
       </c>
       <c r="G70">
-        <v>0.04484314971494082</v>
+        <v>-0.0544578365224458</v>
       </c>
       <c r="H70">
-        <v>-0.001069036822004503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.04161264783722642</v>
+      </c>
+      <c r="I70">
+        <v>-0.02656373545886873</v>
+      </c>
+      <c r="J70">
+        <v>-0.01586863979385563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04667083944415907</v>
+        <v>-0.08138959553571017</v>
       </c>
       <c r="C71">
-        <v>0.3009113860112916</v>
+        <v>-0.286022977747208</v>
       </c>
       <c r="D71">
-        <v>-0.002136354951733146</v>
+        <v>0.1034092682286996</v>
       </c>
       <c r="E71">
-        <v>-0.001833971200459346</v>
+        <v>0.004161686916880185</v>
       </c>
       <c r="F71">
-        <v>0.01151941608376751</v>
+        <v>-0.0221601265754294</v>
       </c>
       <c r="G71">
-        <v>-0.008416156347678314</v>
+        <v>-0.01150691380426875</v>
       </c>
       <c r="H71">
-        <v>0.007923133478935824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.05587931804820872</v>
+      </c>
+      <c r="I71">
+        <v>-0.0299033250364525</v>
+      </c>
+      <c r="J71">
+        <v>0.02956941361543952</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1324015159973861</v>
+        <v>-0.1379144692256215</v>
       </c>
       <c r="C72">
-        <v>0.0199997440238758</v>
+        <v>-0.02516772972564441</v>
       </c>
       <c r="D72">
-        <v>0.07821767477456595</v>
+        <v>-0.01135174955067917</v>
       </c>
       <c r="E72">
-        <v>0.112992292233398</v>
+        <v>0.01138516310770329</v>
       </c>
       <c r="F72">
-        <v>0.0398208783953462</v>
+        <v>-0.01470617421532745</v>
       </c>
       <c r="G72">
-        <v>-0.09395893668649052</v>
+        <v>0.04658536126874496</v>
       </c>
       <c r="H72">
-        <v>0.1083967094422267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.005544031557792642</v>
+      </c>
+      <c r="I72">
+        <v>0.001229602313458319</v>
+      </c>
+      <c r="J72">
+        <v>-0.006213812321399254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2830123670924926</v>
+        <v>-0.2451477812055078</v>
       </c>
       <c r="C73">
-        <v>-0.1455825008712668</v>
+        <v>0.06292312316845379</v>
       </c>
       <c r="D73">
-        <v>0.1379697816609097</v>
+        <v>-0.05876502641024849</v>
       </c>
       <c r="E73">
-        <v>-0.1068254672315942</v>
+        <v>0.05158346282977298</v>
       </c>
       <c r="F73">
-        <v>0.2992299756314767</v>
+        <v>-0.09678365855936538</v>
       </c>
       <c r="G73">
-        <v>0.2892952486006027</v>
+        <v>-0.1842884899744636</v>
       </c>
       <c r="H73">
-        <v>-0.2189987134905323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.303722610266411</v>
+      </c>
+      <c r="I73">
+        <v>0.2605744985138704</v>
+      </c>
+      <c r="J73">
+        <v>0.2534821743829403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1016809309246595</v>
+        <v>-0.1100201823672734</v>
       </c>
       <c r="C74">
-        <v>-0.02975438473224634</v>
+        <v>0.02333926702219401</v>
       </c>
       <c r="D74">
-        <v>0.02960080326442371</v>
+        <v>-0.02854279913878701</v>
       </c>
       <c r="E74">
-        <v>0.02552352232132443</v>
+        <v>0.02970655870633631</v>
       </c>
       <c r="F74">
-        <v>-0.1080498776167024</v>
+        <v>-0.005150280000389406</v>
       </c>
       <c r="G74">
-        <v>0.03562075109517259</v>
+        <v>-0.004938771882082589</v>
       </c>
       <c r="H74">
-        <v>0.0308173755719389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.04799058074418709</v>
+      </c>
+      <c r="I74">
+        <v>0.1064251734867472</v>
+      </c>
+      <c r="J74">
+        <v>-0.1091972207388642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09301969382468546</v>
+        <v>-0.1174112950309552</v>
       </c>
       <c r="C75">
-        <v>-0.01776664886382295</v>
+        <v>0.03370648808292639</v>
       </c>
       <c r="D75">
-        <v>0.05439531898655516</v>
+        <v>-0.02150042558131147</v>
       </c>
       <c r="E75">
-        <v>0.07269903428703568</v>
+        <v>0.01731772998725691</v>
       </c>
       <c r="F75">
-        <v>-0.08651586100184275</v>
+        <v>-0.006940306951890024</v>
       </c>
       <c r="G75">
-        <v>0.04331985699425236</v>
+        <v>0.02304410219352021</v>
       </c>
       <c r="H75">
-        <v>0.01561091459731099</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.0003853418589792526</v>
+      </c>
+      <c r="I75">
+        <v>0.05419819162274733</v>
+      </c>
+      <c r="J75">
+        <v>-0.1320313075416926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1397426334207462</v>
+        <v>-0.04762815041640824</v>
       </c>
       <c r="C76">
-        <v>-0.022113758427276</v>
+        <v>-0.0001475476208735318</v>
       </c>
       <c r="D76">
-        <v>0.02269993971503281</v>
+        <v>-0.01067269034745714</v>
       </c>
       <c r="E76">
-        <v>0.06757680985929972</v>
+        <v>0.0371745629985854</v>
       </c>
       <c r="F76">
-        <v>-0.2353676388622911</v>
+        <v>0.005259717652258835</v>
       </c>
       <c r="G76">
-        <v>0.08111998755131578</v>
+        <v>-0.02912629069053053</v>
       </c>
       <c r="H76">
-        <v>0.03868996838320268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04720838279762724</v>
+      </c>
+      <c r="I76">
+        <v>0.04411651516511835</v>
+      </c>
+      <c r="J76">
+        <v>-0.09522635369202261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.08250883528163093</v>
+        <v>-0.0830574469455672</v>
       </c>
       <c r="C77">
-        <v>0.008743364696247482</v>
+        <v>0.0775891144885708</v>
       </c>
       <c r="D77">
-        <v>-0.1245718168118659</v>
+        <v>-0.01675904863497296</v>
       </c>
       <c r="E77">
-        <v>-0.1159595694961227</v>
+        <v>-0.00606693135757604</v>
       </c>
       <c r="F77">
-        <v>0.2307129813265197</v>
+        <v>0.01170861182983934</v>
       </c>
       <c r="G77">
-        <v>-0.1394720707769856</v>
+        <v>-0.05046011499895219</v>
       </c>
       <c r="H77">
-        <v>-0.1263630150703579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.09603427056014452</v>
+      </c>
+      <c r="I77">
+        <v>-0.2752641981220735</v>
+      </c>
+      <c r="J77">
+        <v>0.3133576818590184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2250704750586435</v>
+        <v>-0.1410633093263373</v>
       </c>
       <c r="C78">
-        <v>-0.04985778499703004</v>
+        <v>0.007323868251693823</v>
       </c>
       <c r="D78">
-        <v>-0.2104567900481052</v>
+        <v>-0.1384169433021145</v>
       </c>
       <c r="E78">
-        <v>-0.0486469063643921</v>
+        <v>0.2036214128687161</v>
       </c>
       <c r="F78">
-        <v>0.01461648245845506</v>
+        <v>0.2087919450721092</v>
       </c>
       <c r="G78">
-        <v>-0.1428579630646045</v>
+        <v>0.08798337808278574</v>
       </c>
       <c r="H78">
-        <v>0.09346236191838128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5959845456237701</v>
+      </c>
+      <c r="I78">
+        <v>-0.5851430447963909</v>
+      </c>
+      <c r="J78">
+        <v>-0.2116700092059064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1378374145604864</v>
+        <v>-0.1391923734550283</v>
       </c>
       <c r="C79">
-        <v>-0.005380203909221144</v>
+        <v>0.02466050961171364</v>
       </c>
       <c r="D79">
-        <v>0.03596152182680052</v>
+        <v>-0.04758418891688018</v>
       </c>
       <c r="E79">
-        <v>0.05076346214389724</v>
+        <v>0.01250922385655143</v>
       </c>
       <c r="F79">
-        <v>-0.1253555352083848</v>
+        <v>-0.01572240761982646</v>
       </c>
       <c r="G79">
-        <v>-0.01424256191248682</v>
+        <v>-0.01036243726183732</v>
       </c>
       <c r="H79">
-        <v>0.05577214355986816</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.05273197890877245</v>
+      </c>
+      <c r="I79">
+        <v>0.05821708768098242</v>
+      </c>
+      <c r="J79">
+        <v>-0.1045133216226544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03563903287804517</v>
+        <v>-0.07349302988703335</v>
       </c>
       <c r="C80">
-        <v>-0.005467418558729929</v>
+        <v>0.05592155774487127</v>
       </c>
       <c r="D80">
-        <v>0.0251335007737945</v>
+        <v>0.00957632609010867</v>
       </c>
       <c r="E80">
-        <v>-0.05571047731099202</v>
+        <v>0.02264078382623091</v>
       </c>
       <c r="F80">
-        <v>0.01850027811006096</v>
+        <v>-0.05326207554758261</v>
       </c>
       <c r="G80">
-        <v>-0.05572260050057205</v>
+        <v>-0.0008799942170835847</v>
       </c>
       <c r="H80">
-        <v>0.1203466984942422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01364873683796014</v>
+      </c>
+      <c r="I80">
+        <v>-0.05891480841833446</v>
+      </c>
+      <c r="J80">
+        <v>-0.1895786009120531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1115210627373007</v>
+        <v>-0.1383924843253265</v>
       </c>
       <c r="C81">
-        <v>0.0002212099514389954</v>
+        <v>0.03330784502803445</v>
       </c>
       <c r="D81">
-        <v>0.01944985802338388</v>
+        <v>-0.0316019588840997</v>
       </c>
       <c r="E81">
-        <v>0.02345664075381505</v>
+        <v>0.01874291406905164</v>
       </c>
       <c r="F81">
-        <v>-0.1227747830945901</v>
+        <v>-0.004443737860803939</v>
       </c>
       <c r="G81">
-        <v>0.01775157943212405</v>
+        <v>-0.008000258501349574</v>
       </c>
       <c r="H81">
-        <v>-0.01380618797883254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.06562986044289634</v>
+      </c>
+      <c r="I81">
+        <v>0.0557684251064589</v>
+      </c>
+      <c r="J81">
+        <v>-0.1528655014100135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1124348682494317</v>
+        <v>-0.1556021571810023</v>
       </c>
       <c r="C82">
-        <v>-0.0167696829845129</v>
+        <v>0.04118629602230462</v>
       </c>
       <c r="D82">
-        <v>0.04869632760993638</v>
+        <v>0.003164945967011959</v>
       </c>
       <c r="E82">
-        <v>-0.03101567351295604</v>
+        <v>0.01013969740560257</v>
       </c>
       <c r="F82">
-        <v>-0.2659598392365306</v>
+        <v>-0.04386368930927576</v>
       </c>
       <c r="G82">
-        <v>0.01013394508797921</v>
+        <v>-0.04181870073748202</v>
       </c>
       <c r="H82">
-        <v>0.04393188847015845</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.04863483747196352</v>
+      </c>
+      <c r="I82">
+        <v>0.1386542911927365</v>
+      </c>
+      <c r="J82">
+        <v>-0.217421502028688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.112873801275947</v>
+        <v>-0.08953556596900171</v>
       </c>
       <c r="C83">
-        <v>-0.04299836304780354</v>
+        <v>0.05379649159170458</v>
       </c>
       <c r="D83">
-        <v>0.002053592332462363</v>
+        <v>-0.008302153090454021</v>
       </c>
       <c r="E83">
-        <v>-0.09896204260716074</v>
+        <v>-0.03229572641475417</v>
       </c>
       <c r="F83">
-        <v>0.03462222799831108</v>
+        <v>0.03396455546617552</v>
       </c>
       <c r="G83">
-        <v>-0.04795511969561068</v>
+        <v>0.009750314429103846</v>
       </c>
       <c r="H83">
-        <v>-0.07225180644117332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.0258665860931922</v>
+      </c>
+      <c r="I83">
+        <v>-0.08183351024194009</v>
+      </c>
+      <c r="J83">
+        <v>-0.06331206856386608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05061433286991768</v>
+        <v>-0.06654089116525053</v>
       </c>
       <c r="C84">
-        <v>-0.02480963996137499</v>
+        <v>0.005764820263296703</v>
       </c>
       <c r="D84">
-        <v>-0.01496002849949244</v>
+        <v>0.01103325962080108</v>
       </c>
       <c r="E84">
-        <v>0.05473061868038973</v>
+        <v>-0.03433495690172847</v>
       </c>
       <c r="F84">
-        <v>-0.05542556572041969</v>
+        <v>-0.03186176067659301</v>
       </c>
       <c r="G84">
-        <v>0.0382778805068914</v>
+        <v>-0.03476709874202531</v>
       </c>
       <c r="H84">
-        <v>0.0004905326220719019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01633606382550993</v>
+      </c>
+      <c r="I84">
+        <v>0.0126157602748511</v>
+      </c>
+      <c r="J84">
+        <v>0.04900255772139299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1075170143244032</v>
+        <v>-0.1242357414622239</v>
       </c>
       <c r="C85">
-        <v>-0.01096470074719877</v>
+        <v>0.02209869565093582</v>
       </c>
       <c r="D85">
-        <v>0.0486062390597868</v>
+        <v>-0.01821167488783021</v>
       </c>
       <c r="E85">
-        <v>0.07739070759572467</v>
+        <v>0.01727998033851669</v>
       </c>
       <c r="F85">
-        <v>-0.1451952294204556</v>
+        <v>-0.01049686482652933</v>
       </c>
       <c r="G85">
-        <v>-0.0215741024262669</v>
+        <v>-0.01227787164428621</v>
       </c>
       <c r="H85">
-        <v>0.0877934074201016</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.0460056368621878</v>
+      </c>
+      <c r="I85">
+        <v>0.04290134584171599</v>
+      </c>
+      <c r="J85">
+        <v>-0.1388581403115253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06846770607554131</v>
+        <v>-0.1178157916632379</v>
       </c>
       <c r="C86">
-        <v>-0.01988717260529812</v>
+        <v>-0.05899877379200307</v>
       </c>
       <c r="D86">
-        <v>-0.09343136058979622</v>
+        <v>-0.3391723727131277</v>
       </c>
       <c r="E86">
-        <v>-0.1121810767666126</v>
+        <v>-0.8691976839469873</v>
       </c>
       <c r="F86">
-        <v>-0.0284802487732222</v>
+        <v>0.2111325169209532</v>
       </c>
       <c r="G86">
-        <v>-0.04445871677583685</v>
+        <v>0.07360636920418469</v>
       </c>
       <c r="H86">
-        <v>0.2679236881268597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.0295246742701722</v>
+      </c>
+      <c r="I86">
+        <v>-0.08089493626027494</v>
+      </c>
+      <c r="J86">
+        <v>-0.05655756500019571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1089850520916902</v>
+        <v>-0.1198370760394888</v>
       </c>
       <c r="C87">
-        <v>-0.05551657557857208</v>
+        <v>0.0987537077119567</v>
       </c>
       <c r="D87">
-        <v>-0.06589239082109045</v>
+        <v>0.06247975058572444</v>
       </c>
       <c r="E87">
-        <v>-0.0252533187417465</v>
+        <v>-0.01018137104631634</v>
       </c>
       <c r="F87">
-        <v>0.02434025019297257</v>
+        <v>0.03293092927376159</v>
       </c>
       <c r="G87">
-        <v>-0.1228834795440562</v>
+        <v>-0.04309268844871601</v>
       </c>
       <c r="H87">
-        <v>0.001343913609183703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.05366695133732287</v>
+      </c>
+      <c r="I87">
+        <v>-0.1986147391120677</v>
+      </c>
+      <c r="J87">
+        <v>0.2035733907374565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07160540708483557</v>
+        <v>-0.05645991665059993</v>
       </c>
       <c r="C88">
-        <v>-0.04139174839005757</v>
+        <v>0.02104605045846762</v>
       </c>
       <c r="D88">
-        <v>-0.02260370068181559</v>
+        <v>-0.02647141187743496</v>
       </c>
       <c r="E88">
-        <v>-0.0251275509380333</v>
+        <v>0.0220857598176091</v>
       </c>
       <c r="F88">
-        <v>-0.02562139498906619</v>
+        <v>-0.04841366648578484</v>
       </c>
       <c r="G88">
-        <v>-0.04792264890345285</v>
+        <v>-0.01559957727723239</v>
       </c>
       <c r="H88">
-        <v>-0.01481926334311437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02135521643348116</v>
+      </c>
+      <c r="I88">
+        <v>-0.01487426723883873</v>
+      </c>
+      <c r="J88">
+        <v>-0.04233440945707696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0912527890741196</v>
+        <v>-0.1286036019033643</v>
       </c>
       <c r="C89">
-        <v>0.3869796307367069</v>
+        <v>-0.3628987937003314</v>
       </c>
       <c r="D89">
-        <v>-0.04233905551487809</v>
+        <v>0.1179277375546063</v>
       </c>
       <c r="E89">
-        <v>-0.05086897565484718</v>
+        <v>0.004289069964699337</v>
       </c>
       <c r="F89">
-        <v>0.02153630341543911</v>
+        <v>0.03849945245727775</v>
       </c>
       <c r="G89">
-        <v>0.01278448810423282</v>
+        <v>-0.04652322107301268</v>
       </c>
       <c r="H89">
-        <v>-0.0107834950621333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-8.541938126933349e-05</v>
+      </c>
+      <c r="I89">
+        <v>-0.03663060295534339</v>
+      </c>
+      <c r="J89">
+        <v>0.005146788636895243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.06942476425271413</v>
+        <v>-0.09554028011974537</v>
       </c>
       <c r="C90">
-        <v>0.2927195684673033</v>
+        <v>-0.2840557339605587</v>
       </c>
       <c r="D90">
-        <v>-0.05345637246347775</v>
+        <v>0.09036128579703381</v>
       </c>
       <c r="E90">
-        <v>-0.01965101047041657</v>
+        <v>-0.007439671435517059</v>
       </c>
       <c r="F90">
-        <v>0.03720804986109739</v>
+        <v>-0.02182987311407696</v>
       </c>
       <c r="G90">
-        <v>-0.03292910400386592</v>
+        <v>-0.01962082498760087</v>
       </c>
       <c r="H90">
-        <v>-0.03914058044439909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05773374983377424</v>
+      </c>
+      <c r="I90">
+        <v>-0.04626908480525887</v>
+      </c>
+      <c r="J90">
+        <v>0.04502629563929383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08124619801979156</v>
+        <v>-0.08582847912805408</v>
       </c>
       <c r="C91">
-        <v>-0.01877951981879853</v>
+        <v>0.02342619665794988</v>
       </c>
       <c r="D91">
-        <v>0.02582888502918541</v>
+        <v>-0.02310222313865429</v>
       </c>
       <c r="E91">
-        <v>0.02468052304427527</v>
+        <v>-0.004358812892898415</v>
       </c>
       <c r="F91">
-        <v>-0.07776908410310443</v>
+        <v>0.00180158744056216</v>
       </c>
       <c r="G91">
-        <v>0.06759885977335747</v>
+        <v>-0.02300470613065882</v>
       </c>
       <c r="H91">
-        <v>-0.02452160843072034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.01261435605892281</v>
+      </c>
+      <c r="I91">
+        <v>0.05827283592349299</v>
+      </c>
+      <c r="J91">
+        <v>-0.08534803327685794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06425223218666823</v>
+        <v>-0.1080078317626822</v>
       </c>
       <c r="C92">
-        <v>0.3567338588809955</v>
+        <v>-0.3190711697030908</v>
       </c>
       <c r="D92">
-        <v>-0.0387738189823095</v>
+        <v>0.1226874560058131</v>
       </c>
       <c r="E92">
-        <v>-0.01597433961558818</v>
+        <v>-0.007263115382917618</v>
       </c>
       <c r="F92">
-        <v>0.05810330704596142</v>
+        <v>0.02406285833603485</v>
       </c>
       <c r="G92">
-        <v>0.01151658567267092</v>
+        <v>0.002678384942228406</v>
       </c>
       <c r="H92">
-        <v>-0.01983626399474221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03945038315646382</v>
+      </c>
+      <c r="I92">
+        <v>-0.06552812938792915</v>
+      </c>
+      <c r="J92">
+        <v>-0.03429430541737211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.07976282504577997</v>
+        <v>-0.100357668482089</v>
       </c>
       <c r="C93">
-        <v>0.3021613578514806</v>
+        <v>-0.3100265700821169</v>
       </c>
       <c r="D93">
-        <v>-0.02742469772282187</v>
+        <v>0.1006439653092389</v>
       </c>
       <c r="E93">
-        <v>-0.01070798986044329</v>
+        <v>-0.02782987259105393</v>
       </c>
       <c r="F93">
-        <v>0.03695410289379422</v>
+        <v>-0.04055360105941654</v>
       </c>
       <c r="G93">
-        <v>0.01860423939808696</v>
+        <v>-0.03087001738809019</v>
       </c>
       <c r="H93">
-        <v>0.001998120164339234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04006065589684341</v>
+      </c>
+      <c r="I93">
+        <v>-0.01257045295193514</v>
+      </c>
+      <c r="J93">
+        <v>0.03335353304225704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09280664281677546</v>
+        <v>-0.134201573324358</v>
       </c>
       <c r="C94">
-        <v>-0.04278949568773696</v>
+        <v>0.03719817475465111</v>
       </c>
       <c r="D94">
-        <v>0.02127660413196459</v>
+        <v>-0.02152562340583494</v>
       </c>
       <c r="E94">
-        <v>0.05183605579114596</v>
+        <v>0.05375005450955011</v>
       </c>
       <c r="F94">
-        <v>-0.1181803769339738</v>
+        <v>0.003273652199871332</v>
       </c>
       <c r="G94">
-        <v>0.04834845738609196</v>
+        <v>-0.007384649996053708</v>
       </c>
       <c r="H94">
-        <v>0.03366007990976942</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.03208486866557175</v>
+      </c>
+      <c r="I94">
+        <v>0.08844777852494409</v>
+      </c>
+      <c r="J94">
+        <v>-0.1104595963186062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1320995330057366</v>
+        <v>-0.1223842782435488</v>
       </c>
       <c r="C95">
-        <v>-0.07648650237113269</v>
+        <v>0.04530765857997647</v>
       </c>
       <c r="D95">
-        <v>-0.09326084215134696</v>
+        <v>-0.03577038612044536</v>
       </c>
       <c r="E95">
-        <v>-0.08103139844679294</v>
+        <v>0.02793333024006559</v>
       </c>
       <c r="F95">
-        <v>0.06949945018152297</v>
+        <v>0.03339688522994542</v>
       </c>
       <c r="G95">
-        <v>-0.09805122875431792</v>
+        <v>-0.03900958707334273</v>
       </c>
       <c r="H95">
-        <v>0.0881956943080149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.01222138605011399</v>
+      </c>
+      <c r="I95">
+        <v>-0.1239116867554233</v>
+      </c>
+      <c r="J95">
+        <v>0.0326305024530784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01004323797842095</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0004706280280758811</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001141443395952745</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.002308946699240208</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.007042613569420733</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.002916718044057872</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.001268284867055195</v>
+      </c>
+      <c r="I96">
+        <v>-0.02277903047367308</v>
+      </c>
+      <c r="J96">
+        <v>0.01671930692466459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.150873145393305</v>
+        <v>-0.1688772936625994</v>
       </c>
       <c r="C97">
-        <v>0.04491196537365105</v>
+        <v>-0.01567369166958595</v>
       </c>
       <c r="D97">
-        <v>0.2301192844018844</v>
+        <v>-0.03256910532200867</v>
       </c>
       <c r="E97">
-        <v>0.817616664024308</v>
+        <v>0.1105960905612228</v>
       </c>
       <c r="F97">
-        <v>0.2468448551377071</v>
+        <v>0.02528425342297882</v>
       </c>
       <c r="G97">
-        <v>-0.1814366259524993</v>
+        <v>0.9245552084608608</v>
       </c>
       <c r="H97">
-        <v>-0.03209417358792462</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.02556631960251698</v>
+      </c>
+      <c r="I97">
+        <v>0.1558145777774645</v>
+      </c>
+      <c r="J97">
+        <v>0.1142362262678343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3282356357610286</v>
+        <v>-0.2722011229009584</v>
       </c>
       <c r="C98">
-        <v>-0.05042482585709037</v>
+        <v>0.03083641010881527</v>
       </c>
       <c r="D98">
-        <v>0.2180755924304501</v>
+        <v>0.02927179984212329</v>
       </c>
       <c r="E98">
-        <v>-0.1555636313514132</v>
+        <v>-0.08559695046270115</v>
       </c>
       <c r="F98">
-        <v>0.1028830804200014</v>
+        <v>0.05167633260439235</v>
       </c>
       <c r="G98">
-        <v>0.3338650508267504</v>
+        <v>-0.03811703779892289</v>
       </c>
       <c r="H98">
-        <v>-0.2210805431699232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3341082451029479</v>
+      </c>
+      <c r="I98">
+        <v>0.2427875042064995</v>
+      </c>
+      <c r="J98">
+        <v>-0.08443796212255857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08910292231536905</v>
+        <v>-0.05810264745176339</v>
       </c>
       <c r="C99">
-        <v>-0.02089397579636737</v>
+        <v>0.000244432419306716</v>
       </c>
       <c r="D99">
-        <v>0.006430100937534786</v>
+        <v>-0.02267882460012966</v>
       </c>
       <c r="E99">
-        <v>-0.005289678969094597</v>
+        <v>0.04873468982823902</v>
       </c>
       <c r="F99">
-        <v>0.01651976544365352</v>
+        <v>0.008473724870287677</v>
       </c>
       <c r="G99">
-        <v>-0.02601458427001305</v>
+        <v>-0.009478178427652693</v>
       </c>
       <c r="H99">
-        <v>-0.06706540510235325</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01716250286854529</v>
+      </c>
+      <c r="I99">
+        <v>0.005122246632716862</v>
+      </c>
+      <c r="J99">
+        <v>-0.01885447950822959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.08151384495329449</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.3081971589023367</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8551189188053266</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2778713319806399</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1186517091541859</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.06799888730662727</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.08692548749362028</v>
+      </c>
+      <c r="I100">
+        <v>-0.06476161603503788</v>
+      </c>
+      <c r="J100">
+        <v>-0.06072252421073811</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06069337776374104</v>
+        <v>-0.03775028468082978</v>
       </c>
       <c r="C101">
-        <v>-0.0007950936884868219</v>
+        <v>0.005438532029717034</v>
       </c>
       <c r="D101">
-        <v>-0.04845971742706146</v>
+        <v>0.006228873460054113</v>
       </c>
       <c r="E101">
-        <v>-0.02193812146517289</v>
+        <v>0.0009189164697346369</v>
       </c>
       <c r="F101">
-        <v>-0.03656176512897712</v>
+        <v>-0.01134874322862119</v>
       </c>
       <c r="G101">
-        <v>-0.03349382438213296</v>
+        <v>-0.0261814266191491</v>
       </c>
       <c r="H101">
-        <v>0.08867241706113595</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.07575432926424461</v>
+      </c>
+      <c r="I101">
+        <v>-0.0375298112035473</v>
+      </c>
+      <c r="J101">
+        <v>-0.0589553818537915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
